--- a/Backend/financeReport.xlsx
+++ b/Backend/financeReport.xlsx
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="E144" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F144" s="13" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="F145" s="16" t="n">
-        <v>70.06</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146">
